--- a/reports/week1_report.xlsx
+++ b/reports/week1_report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95ac101b7a32dd1a/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiovascular-disease-prediction\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{3EE6D938-FA80-455D-B4B1-F0F617F8D9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{580CEBAE-CE53-4ED8-932F-892FB5E4C2B5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27BFE6E-3701-43F0-9312-A1FC46BA7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{173E8868-4012-46FE-BA66-EB9569D734DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Data Cleaning</t>
   </si>
@@ -143,22 +143,10 @@
     <t>WEEK 1</t>
   </si>
   <si>
-    <t>VERSION CONTROL</t>
-  </si>
-  <si>
-    <t>SLIDES</t>
-  </si>
-  <si>
-    <t>PRESENTATION</t>
-  </si>
-  <si>
     <t xml:space="preserve">DATA CLEANING </t>
   </si>
   <si>
     <t xml:space="preserve">DOCUMENTATION  </t>
-  </si>
-  <si>
-    <t>SLIDES --&gt; PRESENTATION</t>
   </si>
   <si>
     <t>EVERYONE</t>
@@ -283,27 +271,27 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -345,54 +333,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -439,13 +379,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -460,6 +393,61 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -471,10 +459,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,11 +475,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8FCE3214-0A02-49ED-A39D-C9A55463DD09}" name="Table3" displayName="Table3" ref="A19:B29" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8FCE3214-0A02-49ED-A39D-C9A55463DD09}" name="Table3" displayName="Table3" ref="A19:B29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A19:B29" xr:uid="{8FCE3214-0A02-49ED-A39D-C9A55463DD09}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{73435DA6-4B81-432F-89FD-78A704897E4B}" name="Names" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{C9862205-B0D8-42C3-A519-8DC520A7DE85}" name="Tasks" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{73435DA6-4B81-432F-89FD-78A704897E4B}" name="Names" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{C9862205-B0D8-42C3-A519-8DC520A7DE85}" name="Tasks" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -801,7 +785,7 @@
   <dimension ref="A2:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -814,11 +798,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -831,17 +815,17 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
@@ -855,7 +839,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
@@ -869,7 +853,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
@@ -883,7 +867,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
@@ -894,7 +878,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
@@ -908,7 +892,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
@@ -919,7 +903,7 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
@@ -930,7 +914,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
@@ -941,7 +925,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
@@ -949,20 +933,20 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C13" s="10"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>43</v>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -970,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -978,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -986,15 +970,15 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1009,7 +993,7 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1018,31 +1002,31 @@
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>42</v>
+      <c r="A29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/reports/week1_report.xlsx
+++ b/reports/week1_report.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiovascular-disease-prediction\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Steps\cardiovascular-disease-prediction\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27BFE6E-3701-43F0-9312-A1FC46BA7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{173E8868-4012-46FE-BA66-EB9569D734DE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="13896"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Data Cleaning</t>
   </si>
@@ -162,12 +161,15 @@
   </si>
   <si>
     <t>Preferences for Week 2</t>
+  </si>
+  <si>
+    <t>Data Cleaning, GitHub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,7 +314,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -348,7 +349,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -407,7 +407,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -438,7 +437,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -462,24 +460,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{193DF3AE-9ACA-4131-AD81-B32C835256A9}" name="Table1" displayName="Table1" ref="A3:D12" totalsRowShown="0">
-  <autoFilter ref="A3:D12" xr:uid="{193DF3AE-9ACA-4131-AD81-B32C835256A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D12" totalsRowShown="0">
+  <autoFilter ref="A3:D12"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{26669979-0429-4113-AE0D-E56DBBDDEB23}" name="Names"/>
-    <tableColumn id="2" xr3:uid="{D6731D6A-C5A0-4788-8FF3-4CE11113836D}" name="E-mail"/>
-    <tableColumn id="3" xr3:uid="{E3024F40-B3F5-4B85-A2CD-56B244B96918}" name="Preferences"/>
-    <tableColumn id="4" xr3:uid="{AC01980A-0055-44D7-902D-6100A6666D49}" name="Preferences for Week 2"/>
+    <tableColumn id="1" name="Names"/>
+    <tableColumn id="2" name="E-mail"/>
+    <tableColumn id="3" name="Preferences"/>
+    <tableColumn id="4" name="Preferences for Week 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8FCE3214-0A02-49ED-A39D-C9A55463DD09}" name="Table3" displayName="Table3" ref="A19:B29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A19:B29" xr:uid="{8FCE3214-0A02-49ED-A39D-C9A55463DD09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A19:B29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A19:B29"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{73435DA6-4B81-432F-89FD-78A704897E4B}" name="Names" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{C9862205-B0D8-42C3-A519-8DC520A7DE85}" name="Tasks" dataDxfId="0"/>
+    <tableColumn id="1" name="Names" dataDxfId="1"/>
+    <tableColumn id="2" name="Tasks" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -781,30 +779,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4E4E5F-D298-40A5-BF87-265273AE63BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -821,7 +819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -835,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -849,7 +847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -863,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -874,7 +872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -888,7 +886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -899,7 +897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -907,10 +905,10 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -921,7 +919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -932,16 +930,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
@@ -949,7 +947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -957,7 +955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -965,7 +963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -973,7 +971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -981,7 +979,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,7 +987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -997,7 +995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,7 +1003,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1013,7 +1011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>12</v>
       </c>
@@ -1021,7 +1019,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
@@ -1035,15 +1033,15 @@
     <mergeCell ref="A18:B18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{B9263AC6-5CCF-4E6B-8CB7-56A5A4283048}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{134C34E0-BDA2-4B6E-8D8E-C1A35E7634B9}"/>
-    <hyperlink ref="B5" r:id="rId3" display="mailto:Yetundeshittu77@yahoo.com" xr:uid="{BDFC4C36-F802-9F47-907B-9A0C52048B1B}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{09286A99-799C-4307-9825-0AEB300848CA}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{61E8D62B-AE13-45B5-81AD-4062725CC119}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{33D2A2A3-8F25-4B26-A9BF-927CD976759B}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{F544E34B-F286-4D36-B39F-3E00104C144E}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{AAF189EF-10F0-4852-A8D2-555166BE09C7}"/>
-    <hyperlink ref="B6" r:id="rId9" xr:uid="{6E289574-286F-4422-A233-E2ABAC10CCD2}"/>
+    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3" display="mailto:Yetundeshittu77@yahoo.com"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/reports/week1_report.xlsx
+++ b/reports/week1_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiovascular-disease-prediction\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27BFE6E-3701-43F0-9312-A1FC46BA7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D39B5A9-8799-40E8-BD08-1594E1E395C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{173E8868-4012-46FE-BA66-EB9569D734DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Data Cleaning</t>
   </si>
@@ -146,9 +146,6 @@
     <t xml:space="preserve">DATA CLEANING </t>
   </si>
   <si>
-    <t xml:space="preserve">DOCUMENTATION  </t>
-  </si>
-  <si>
     <t>EVERYONE</t>
   </si>
   <si>
@@ -162,6 +159,21 @@
   </si>
   <si>
     <t>Preferences for Week 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA COLLECTION </t>
+  </si>
+  <si>
+    <t>SCOPE OF PROJECT</t>
+  </si>
+  <si>
+    <t>GIT CONTROL</t>
+  </si>
+  <si>
+    <t>FEATURE KNOWLEDGE</t>
+  </si>
+  <si>
+    <t>DOCUMENTATION  AND GIT</t>
   </si>
 </sst>
 </file>
@@ -785,7 +797,7 @@
   <dimension ref="A2:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -815,10 +827,10 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -946,7 +958,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -970,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -978,7 +990,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -994,7 +1006,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1010,7 +1022,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1018,15 +1030,15 @@
         <v>12</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
